--- a/EC330/HW6/grades.xlsx
+++ b/EC330/HW6/grades.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="150">
   <si>
     <t>AdinHorovitz</t>
   </si>
@@ -414,6 +414,66 @@
   </si>
   <si>
     <t>2b_comments</t>
+  </si>
+  <si>
+    <t>May not be O(V) specifically, for a dense graph the E will be larger</t>
+  </si>
+  <si>
+    <t>Algorithm is not complete or functional</t>
+  </si>
+  <si>
+    <t>In some cases, you will have O(V+E) which could be greater than O(V)</t>
+  </si>
+  <si>
+    <t>Incorrect answer</t>
+  </si>
+  <si>
+    <t>This algorithm is not complete and does not describe what you are trying to do</t>
+  </si>
+  <si>
+    <t>Algorithm does not cover some cases that will appear</t>
+  </si>
+  <si>
+    <t>Invalid runtime, should just be O( E)</t>
+  </si>
+  <si>
+    <t>You can do this in O( E)</t>
+  </si>
+  <si>
+    <t>The actual runtime is O(V+E), and in some cases O(V) will be larger than O( E)</t>
+  </si>
+  <si>
+    <t>This will not find all cycles</t>
+  </si>
+  <si>
+    <t>You can get it down to O(V+E) time</t>
+  </si>
+  <si>
+    <t>This is true for the worst case but does not describe the general case correctly</t>
+  </si>
+  <si>
+    <t>Incorrect, no explanation</t>
+  </si>
+  <si>
+    <t>I'm not sure what you're trying to find here</t>
+  </si>
+  <si>
+    <t>You never check if you have a cycle or not</t>
+  </si>
+  <si>
+    <t>algorithm needs more definition</t>
+  </si>
+  <si>
+    <t>Close bounds</t>
+  </si>
+  <si>
+    <t>algorithm needs more detail</t>
+  </si>
+  <si>
+    <t>how do you separate the sets</t>
+  </si>
+  <si>
+    <t>need psuedocode</t>
   </si>
 </sst>
 </file>
@@ -731,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K121"/>
+  <dimension ref="A1:L121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,7 +802,7 @@
     <col min="1" max="1" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>120</v>
       </c>
@@ -774,604 +834,2041 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L2">
+        <f>SUM(B2,D2,F2,H2,J2)</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>131</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L66" si="0">SUM(B3,D3,F3,H3,J3)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
+      <c r="K4" t="s">
+        <v>135</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9" t="s">
+        <v>139</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>142</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="J15">
+        <v>10</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16">
+        <v>10</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="J16">
+        <v>10</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>140</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="J17">
+        <v>10</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>132</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>143</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18" t="s">
+        <v>144</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="J19">
+        <v>10</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="J21">
+        <v>10</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="K22" t="s">
+        <v>145</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="H24">
+        <v>10</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="H25">
+        <v>10</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <v>10</v>
+      </c>
+      <c r="J26">
+        <v>10</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="F27">
+        <v>10</v>
+      </c>
+      <c r="H27">
+        <v>10</v>
+      </c>
+      <c r="J27">
+        <v>5</v>
+      </c>
+      <c r="K27" t="s">
+        <v>139</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28" t="s">
+        <v>133</v>
+      </c>
+      <c r="H28">
+        <v>10</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>136</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <v>4</v>
+      </c>
+      <c r="G29" t="s">
+        <v>133</v>
+      </c>
+      <c r="H29">
+        <v>10</v>
+      </c>
+      <c r="J29">
+        <v>10</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="E30" t="s">
+        <v>146</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="H30">
+        <v>10</v>
+      </c>
+      <c r="J30">
+        <v>10</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="D31">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>132</v>
+      </c>
+      <c r="F31">
+        <v>10</v>
+      </c>
+      <c r="H31">
+        <v>10</v>
+      </c>
+      <c r="J31">
+        <v>10</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>140</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+      <c r="H33">
+        <v>10</v>
+      </c>
+      <c r="J33">
+        <v>10</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>132</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+      <c r="H34">
+        <v>10</v>
+      </c>
+      <c r="J34">
+        <v>10</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="D35">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
+        <v>132</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H35">
+        <v>5</v>
+      </c>
+      <c r="I35" t="s">
+        <v>147</v>
+      </c>
+      <c r="J35">
+        <v>10</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36" t="s">
+        <v>133</v>
+      </c>
+      <c r="H36">
+        <v>5</v>
+      </c>
+      <c r="I36" t="s">
+        <v>148</v>
+      </c>
+      <c r="J36">
+        <v>5</v>
+      </c>
+      <c r="K36" t="s">
+        <v>145</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>10</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37" t="s">
+        <v>133</v>
+      </c>
+      <c r="H37">
+        <v>5</v>
+      </c>
+      <c r="I37" t="s">
+        <v>147</v>
+      </c>
+      <c r="J37">
+        <v>5</v>
+      </c>
+      <c r="K37" t="s">
+        <v>145</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
+        <v>138</v>
+      </c>
+      <c r="F38">
+        <v>10</v>
+      </c>
+      <c r="H38">
+        <v>10</v>
+      </c>
+      <c r="J38">
+        <v>5</v>
+      </c>
+      <c r="K38" t="s">
+        <v>145</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>10</v>
+      </c>
+      <c r="F39">
+        <v>10</v>
+      </c>
+      <c r="H39">
+        <v>10</v>
+      </c>
+      <c r="J39">
+        <v>10</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="D40">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>132</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+      <c r="H40">
+        <v>10</v>
+      </c>
+      <c r="J40">
+        <v>5</v>
+      </c>
+      <c r="K40" t="s">
+        <v>149</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>132</v>
+      </c>
+      <c r="F41">
+        <v>10</v>
+      </c>
+      <c r="H41">
+        <v>10</v>
+      </c>
+      <c r="J41">
+        <v>10</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>132</v>
+      </c>
+      <c r="F42">
+        <v>10</v>
+      </c>
+      <c r="H42">
+        <v>10</v>
+      </c>
+      <c r="J42">
+        <v>10</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>8</v>
+      </c>
+      <c r="E43" t="s">
+        <v>146</v>
+      </c>
+      <c r="F43">
+        <v>10</v>
+      </c>
+      <c r="H43">
+        <v>10</v>
+      </c>
+      <c r="J43">
+        <v>10</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45" t="s">
+        <v>136</v>
+      </c>
+      <c r="D45">
+        <v>10</v>
+      </c>
+      <c r="F45">
+        <v>10</v>
+      </c>
+      <c r="H45">
+        <v>10</v>
+      </c>
+      <c r="J45">
+        <v>10</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <v>7</v>
+      </c>
+      <c r="E46" t="s">
+        <v>132</v>
+      </c>
+      <c r="F46">
+        <v>10</v>
+      </c>
+      <c r="H46">
+        <v>10</v>
+      </c>
+      <c r="J46">
+        <v>5</v>
+      </c>
+      <c r="K46" t="s">
+        <v>145</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>10</v>
+      </c>
+      <c r="D47">
+        <v>10</v>
+      </c>
+      <c r="F47">
+        <v>10</v>
+      </c>
+      <c r="H47">
+        <v>10</v>
+      </c>
+      <c r="J47">
+        <v>10</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>10</v>
+      </c>
+      <c r="D48">
+        <v>10</v>
+      </c>
+      <c r="F48">
+        <v>10</v>
+      </c>
+      <c r="H48">
+        <v>10</v>
+      </c>
+      <c r="J48">
+        <v>10</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>10</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+      <c r="E49" t="s">
+        <v>140</v>
+      </c>
+      <c r="F49">
+        <v>10</v>
+      </c>
+      <c r="H49">
+        <v>5</v>
+      </c>
+      <c r="I49" t="s">
+        <v>149</v>
+      </c>
+      <c r="J49">
+        <v>5</v>
+      </c>
+      <c r="K49" t="s">
+        <v>149</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>10</v>
+      </c>
+      <c r="D50">
+        <v>10</v>
+      </c>
+      <c r="F50">
+        <v>10</v>
+      </c>
+      <c r="H50">
+        <v>10</v>
+      </c>
+      <c r="J50">
+        <v>10</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>4</v>
+      </c>
+      <c r="C51" t="s">
+        <v>136</v>
+      </c>
+      <c r="D51">
+        <v>10</v>
+      </c>
+      <c r="F51">
+        <v>10</v>
+      </c>
+      <c r="H51">
+        <v>10</v>
+      </c>
+      <c r="J51">
+        <v>10</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>10</v>
+      </c>
+      <c r="D52">
+        <v>10</v>
+      </c>
+      <c r="F52">
+        <v>10</v>
+      </c>
+      <c r="H52">
+        <v>10</v>
+      </c>
+      <c r="J52">
+        <v>10</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L67">
+        <f t="shared" ref="L67:L121" si="1">SUM(B67,D67,F67,H67,J67)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L72">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L73">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L74">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L77">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L83">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L87">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L89">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L91">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L93">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L94">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L95">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L97">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L98">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L99">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L100">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L101">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L102">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L104">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L108">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L109">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L110">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L112">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L113">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L114">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L115">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L116">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L117">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L118">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L119">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="L120">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>119</v>
+      </c>
+      <c r="L121">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/EC330/HW6/grades.xlsx
+++ b/EC330/HW6/grades.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="151">
   <si>
     <t>AdinHorovitz</t>
   </si>
@@ -474,6 +474,9 @@
   </si>
   <si>
     <t>need psuedocode</t>
+  </si>
+  <si>
+    <t>Final Answer?</t>
   </si>
 </sst>
 </file>
@@ -793,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="N115" sqref="N115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2254,6 +2257,21 @@
       <c r="A53" t="s">
         <v>51</v>
       </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
       <c r="L53">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2263,42 +2281,153 @@
       <c r="A54" t="s">
         <v>52</v>
       </c>
+      <c r="B54">
+        <v>10</v>
+      </c>
+      <c r="D54">
+        <v>7</v>
+      </c>
+      <c r="E54" t="s">
+        <v>132</v>
+      </c>
+      <c r="F54">
+        <v>4</v>
+      </c>
+      <c r="G54" t="s">
+        <v>133</v>
+      </c>
+      <c r="H54">
+        <v>10</v>
+      </c>
+      <c r="J54">
+        <v>5</v>
+      </c>
+      <c r="K54" t="s">
+        <v>139</v>
+      </c>
       <c r="L54">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>136</v>
+      </c>
+      <c r="D55">
+        <v>7</v>
+      </c>
+      <c r="E55" t="s">
+        <v>132</v>
+      </c>
+      <c r="F55">
+        <v>7</v>
+      </c>
+      <c r="G55" t="s">
+        <v>150</v>
+      </c>
+      <c r="H55">
+        <v>5</v>
+      </c>
+      <c r="I55" t="s">
+        <v>145</v>
+      </c>
+      <c r="J55">
+        <v>5</v>
+      </c>
+      <c r="K55" t="s">
+        <v>139</v>
+      </c>
       <c r="L55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
+      <c r="B56">
+        <v>10</v>
+      </c>
+      <c r="D56">
+        <v>7</v>
+      </c>
+      <c r="E56" t="s">
+        <v>138</v>
+      </c>
+      <c r="F56">
+        <v>10</v>
+      </c>
+      <c r="H56">
+        <v>5</v>
+      </c>
+      <c r="I56" t="s">
+        <v>149</v>
+      </c>
+      <c r="J56">
+        <v>5</v>
+      </c>
+      <c r="K56" t="s">
+        <v>149</v>
+      </c>
       <c r="L56">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
+      <c r="B57">
+        <v>10</v>
+      </c>
+      <c r="D57">
+        <v>7</v>
+      </c>
+      <c r="E57" t="s">
+        <v>132</v>
+      </c>
+      <c r="F57">
+        <v>10</v>
+      </c>
+      <c r="H57">
+        <v>10</v>
+      </c>
+      <c r="J57">
+        <v>10</v>
+      </c>
       <c r="L57">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
       <c r="L58">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2308,6 +2437,21 @@
       <c r="A59" t="s">
         <v>57</v>
       </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
       <c r="L59">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2317,51 +2461,162 @@
       <c r="A60" t="s">
         <v>58</v>
       </c>
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60">
+        <v>4</v>
+      </c>
+      <c r="E60" t="s">
+        <v>140</v>
+      </c>
+      <c r="F60">
+        <v>10</v>
+      </c>
+      <c r="H60">
+        <v>10</v>
+      </c>
+      <c r="J60">
+        <v>10</v>
+      </c>
       <c r="L60">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
+      <c r="B61">
+        <v>10</v>
+      </c>
+      <c r="D61">
+        <v>10</v>
+      </c>
+      <c r="F61">
+        <v>10</v>
+      </c>
+      <c r="H61">
+        <v>10</v>
+      </c>
+      <c r="J61">
+        <v>10</v>
+      </c>
       <c r="L61">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
+      <c r="B62">
+        <v>10</v>
+      </c>
+      <c r="D62">
+        <v>10</v>
+      </c>
+      <c r="F62">
+        <v>4</v>
+      </c>
+      <c r="G62" t="s">
+        <v>133</v>
+      </c>
+      <c r="H62">
+        <v>5</v>
+      </c>
+      <c r="I62" t="s">
+        <v>145</v>
+      </c>
+      <c r="J62">
+        <v>5</v>
+      </c>
+      <c r="K62" t="s">
+        <v>145</v>
+      </c>
       <c r="L62">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
+      <c r="B63">
+        <v>10</v>
+      </c>
+      <c r="D63">
+        <v>7</v>
+      </c>
+      <c r="E63" t="s">
+        <v>132</v>
+      </c>
+      <c r="F63">
+        <v>10</v>
+      </c>
+      <c r="H63">
+        <v>10</v>
+      </c>
+      <c r="J63">
+        <v>10</v>
+      </c>
       <c r="L63">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
+      <c r="B64">
+        <v>10</v>
+      </c>
+      <c r="D64">
+        <v>10</v>
+      </c>
+      <c r="F64">
+        <v>4</v>
+      </c>
+      <c r="G64" t="s">
+        <v>133</v>
+      </c>
+      <c r="H64">
+        <v>10</v>
+      </c>
+      <c r="J64">
+        <v>10</v>
+      </c>
       <c r="L64">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
       <c r="L65">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2371,24 +2626,72 @@
       <c r="A66" t="s">
         <v>64</v>
       </c>
+      <c r="B66">
+        <v>10</v>
+      </c>
+      <c r="D66">
+        <v>10</v>
+      </c>
+      <c r="F66">
+        <v>10</v>
+      </c>
+      <c r="H66">
+        <v>10</v>
+      </c>
+      <c r="J66">
+        <v>10</v>
+      </c>
       <c r="L66">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
+      <c r="B67">
+        <v>10</v>
+      </c>
+      <c r="D67">
+        <v>8</v>
+      </c>
+      <c r="E67" t="s">
+        <v>146</v>
+      </c>
+      <c r="F67">
+        <v>10</v>
+      </c>
+      <c r="H67">
+        <v>10</v>
+      </c>
+      <c r="J67">
+        <v>10</v>
+      </c>
       <c r="L67">
         <f t="shared" ref="L67:L121" si="1">SUM(B67,D67,F67,H67,J67)</f>
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
       <c r="L68">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2398,6 +2701,21 @@
       <c r="A69" t="s">
         <v>67</v>
       </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
       <c r="L69">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2407,6 +2725,21 @@
       <c r="A70" t="s">
         <v>68</v>
       </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
       <c r="L70">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2416,6 +2749,21 @@
       <c r="A71" t="s">
         <v>69</v>
       </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
       <c r="L71">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2425,33 +2773,96 @@
       <c r="A72" t="s">
         <v>70</v>
       </c>
+      <c r="B72">
+        <v>10</v>
+      </c>
+      <c r="D72">
+        <v>10</v>
+      </c>
+      <c r="F72">
+        <v>10</v>
+      </c>
+      <c r="H72">
+        <v>10</v>
+      </c>
+      <c r="J72">
+        <v>10</v>
+      </c>
       <c r="L72">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
+      <c r="B73">
+        <v>10</v>
+      </c>
+      <c r="D73">
+        <v>10</v>
+      </c>
+      <c r="F73">
+        <v>10</v>
+      </c>
+      <c r="H73">
+        <v>10</v>
+      </c>
+      <c r="J73">
+        <v>10</v>
+      </c>
       <c r="L73">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
+      <c r="B74">
+        <v>10</v>
+      </c>
+      <c r="D74">
+        <v>4</v>
+      </c>
+      <c r="E74" t="s">
+        <v>140</v>
+      </c>
+      <c r="F74">
+        <v>10</v>
+      </c>
+      <c r="H74">
+        <v>10</v>
+      </c>
+      <c r="J74">
+        <v>10</v>
+      </c>
       <c r="L74">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
       <c r="L75">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2461,24 +2872,78 @@
       <c r="A76" t="s">
         <v>74</v>
       </c>
+      <c r="B76">
+        <v>10</v>
+      </c>
+      <c r="D76">
+        <v>7</v>
+      </c>
+      <c r="E76" t="s">
+        <v>132</v>
+      </c>
+      <c r="F76">
+        <v>4</v>
+      </c>
+      <c r="G76" t="s">
+        <v>133</v>
+      </c>
+      <c r="H76">
+        <v>10</v>
+      </c>
+      <c r="J76">
+        <v>10</v>
+      </c>
       <c r="L76">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
+      <c r="B77">
+        <v>10</v>
+      </c>
+      <c r="D77">
+        <v>7</v>
+      </c>
+      <c r="E77" t="s">
+        <v>132</v>
+      </c>
+      <c r="F77">
+        <v>10</v>
+      </c>
+      <c r="H77">
+        <v>10</v>
+      </c>
+      <c r="J77">
+        <v>10</v>
+      </c>
       <c r="L77">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
       <c r="L78">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2488,87 +2953,273 @@
       <c r="A79" t="s">
         <v>77</v>
       </c>
+      <c r="B79">
+        <v>4</v>
+      </c>
+      <c r="C79" t="s">
+        <v>136</v>
+      </c>
+      <c r="D79">
+        <v>10</v>
+      </c>
+      <c r="F79">
+        <v>10</v>
+      </c>
+      <c r="H79">
+        <v>10</v>
+      </c>
+      <c r="J79">
+        <v>10</v>
+      </c>
       <c r="L79">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
+      <c r="B80">
+        <v>10</v>
+      </c>
+      <c r="D80">
+        <v>4</v>
+      </c>
+      <c r="E80" t="s">
+        <v>140</v>
+      </c>
+      <c r="F80">
+        <v>10</v>
+      </c>
+      <c r="H80">
+        <v>5</v>
+      </c>
+      <c r="I80" t="s">
+        <v>145</v>
+      </c>
+      <c r="J80">
+        <v>5</v>
+      </c>
+      <c r="K80" t="s">
+        <v>145</v>
+      </c>
       <c r="L80">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>79</v>
       </c>
+      <c r="B81">
+        <v>4</v>
+      </c>
+      <c r="C81" t="s">
+        <v>136</v>
+      </c>
+      <c r="D81">
+        <v>7</v>
+      </c>
+      <c r="E81" t="s">
+        <v>132</v>
+      </c>
+      <c r="F81">
+        <v>10</v>
+      </c>
+      <c r="H81">
+        <v>10</v>
+      </c>
+      <c r="J81">
+        <v>10</v>
+      </c>
       <c r="L81">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>80</v>
       </c>
+      <c r="B82">
+        <v>10</v>
+      </c>
+      <c r="D82">
+        <v>10</v>
+      </c>
+      <c r="F82">
+        <v>10</v>
+      </c>
+      <c r="H82">
+        <v>10</v>
+      </c>
+      <c r="J82">
+        <v>10</v>
+      </c>
       <c r="L82">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>81</v>
       </c>
+      <c r="B83">
+        <v>10</v>
+      </c>
+      <c r="D83">
+        <v>10</v>
+      </c>
+      <c r="F83">
+        <v>4</v>
+      </c>
+      <c r="G83" t="s">
+        <v>133</v>
+      </c>
+      <c r="H83">
+        <v>10</v>
+      </c>
+      <c r="J83">
+        <v>5</v>
+      </c>
+      <c r="K83" t="s">
+        <v>145</v>
+      </c>
       <c r="L83">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
+      <c r="B84">
+        <v>10</v>
+      </c>
+      <c r="D84">
+        <v>10</v>
+      </c>
+      <c r="F84">
+        <v>10</v>
+      </c>
+      <c r="H84">
+        <v>10</v>
+      </c>
+      <c r="J84">
+        <v>10</v>
+      </c>
       <c r="L84">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>83</v>
       </c>
+      <c r="B85">
+        <v>10</v>
+      </c>
+      <c r="D85">
+        <v>10</v>
+      </c>
+      <c r="F85">
+        <v>4</v>
+      </c>
+      <c r="G85" t="s">
+        <v>133</v>
+      </c>
+      <c r="H85">
+        <v>10</v>
+      </c>
+      <c r="J85">
+        <v>5</v>
+      </c>
+      <c r="K85" t="s">
+        <v>145</v>
+      </c>
       <c r="L85">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>84</v>
       </c>
+      <c r="B86">
+        <v>4</v>
+      </c>
+      <c r="C86" t="s">
+        <v>136</v>
+      </c>
+      <c r="D86">
+        <v>4</v>
+      </c>
+      <c r="E86" t="s">
+        <v>140</v>
+      </c>
+      <c r="F86">
+        <v>10</v>
+      </c>
+      <c r="H86">
+        <v>10</v>
+      </c>
+      <c r="J86">
+        <v>10</v>
+      </c>
       <c r="L86">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>85</v>
       </c>
+      <c r="B87">
+        <v>10</v>
+      </c>
+      <c r="D87">
+        <v>10</v>
+      </c>
+      <c r="F87">
+        <v>10</v>
+      </c>
+      <c r="H87">
+        <v>10</v>
+      </c>
+      <c r="J87">
+        <v>10</v>
+      </c>
       <c r="L87">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>86</v>
       </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
       <c r="L88">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2578,42 +3229,138 @@
       <c r="A89" t="s">
         <v>87</v>
       </c>
+      <c r="B89">
+        <v>10</v>
+      </c>
+      <c r="D89">
+        <v>7</v>
+      </c>
+      <c r="E89" t="s">
+        <v>138</v>
+      </c>
+      <c r="F89">
+        <v>10</v>
+      </c>
+      <c r="H89">
+        <v>10</v>
+      </c>
+      <c r="J89">
+        <v>10</v>
+      </c>
       <c r="L89">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>88</v>
       </c>
+      <c r="B90">
+        <v>4</v>
+      </c>
+      <c r="C90" t="s">
+        <v>136</v>
+      </c>
+      <c r="D90">
+        <v>7</v>
+      </c>
+      <c r="E90" t="s">
+        <v>132</v>
+      </c>
+      <c r="F90">
+        <v>10</v>
+      </c>
+      <c r="H90">
+        <v>10</v>
+      </c>
+      <c r="J90">
+        <v>10</v>
+      </c>
       <c r="L90">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>89</v>
       </c>
+      <c r="B91">
+        <v>4</v>
+      </c>
+      <c r="C91" t="s">
+        <v>136</v>
+      </c>
+      <c r="D91">
+        <v>7</v>
+      </c>
+      <c r="E91" t="s">
+        <v>132</v>
+      </c>
+      <c r="F91">
+        <v>10</v>
+      </c>
+      <c r="H91">
+        <v>10</v>
+      </c>
+      <c r="J91">
+        <v>10</v>
+      </c>
       <c r="L91">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>90</v>
       </c>
+      <c r="B92">
+        <v>10</v>
+      </c>
+      <c r="D92">
+        <v>7</v>
+      </c>
+      <c r="E92" t="s">
+        <v>138</v>
+      </c>
+      <c r="F92">
+        <v>4</v>
+      </c>
+      <c r="G92" t="s">
+        <v>133</v>
+      </c>
+      <c r="H92">
+        <v>10</v>
+      </c>
+      <c r="J92">
+        <v>10</v>
+      </c>
       <c r="L92">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>91</v>
       </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
       <c r="L93">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2623,24 +3370,72 @@
       <c r="A94" t="s">
         <v>92</v>
       </c>
+      <c r="B94">
+        <v>10</v>
+      </c>
+      <c r="D94">
+        <v>10</v>
+      </c>
+      <c r="F94">
+        <v>10</v>
+      </c>
+      <c r="H94">
+        <v>10</v>
+      </c>
+      <c r="J94">
+        <v>10</v>
+      </c>
       <c r="L94">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>93</v>
       </c>
+      <c r="B95">
+        <v>10</v>
+      </c>
+      <c r="D95">
+        <v>10</v>
+      </c>
+      <c r="F95">
+        <v>4</v>
+      </c>
+      <c r="G95" t="s">
+        <v>133</v>
+      </c>
+      <c r="H95">
+        <v>10</v>
+      </c>
+      <c r="J95">
+        <v>10</v>
+      </c>
       <c r="L95">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>94</v>
       </c>
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
       <c r="L96">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2650,33 +3445,105 @@
       <c r="A97" t="s">
         <v>95</v>
       </c>
+      <c r="B97">
+        <v>10</v>
+      </c>
+      <c r="D97">
+        <v>10</v>
+      </c>
+      <c r="F97">
+        <v>10</v>
+      </c>
+      <c r="H97">
+        <v>5</v>
+      </c>
+      <c r="I97" t="s">
+        <v>145</v>
+      </c>
+      <c r="J97">
+        <v>10</v>
+      </c>
       <c r="L97">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>96</v>
       </c>
+      <c r="B98">
+        <v>4</v>
+      </c>
+      <c r="C98" t="s">
+        <v>136</v>
+      </c>
+      <c r="D98">
+        <v>10</v>
+      </c>
+      <c r="F98">
+        <v>10</v>
+      </c>
+      <c r="H98">
+        <v>10</v>
+      </c>
+      <c r="J98">
+        <v>10</v>
+      </c>
       <c r="L98">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>97</v>
       </c>
+      <c r="B99">
+        <v>10</v>
+      </c>
+      <c r="D99">
+        <v>4</v>
+      </c>
+      <c r="E99" t="s">
+        <v>140</v>
+      </c>
+      <c r="F99">
+        <v>10</v>
+      </c>
+      <c r="H99">
+        <v>10</v>
+      </c>
+      <c r="J99">
+        <v>5</v>
+      </c>
+      <c r="K99" t="s">
+        <v>145</v>
+      </c>
       <c r="L99">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>98</v>
       </c>
+      <c r="B100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
       <c r="L100">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2686,15 +3553,51 @@
       <c r="A101" t="s">
         <v>99</v>
       </c>
+      <c r="B101">
+        <v>10</v>
+      </c>
+      <c r="D101">
+        <v>7</v>
+      </c>
+      <c r="E101" t="s">
+        <v>132</v>
+      </c>
+      <c r="F101">
+        <v>4</v>
+      </c>
+      <c r="G101" t="s">
+        <v>133</v>
+      </c>
+      <c r="H101">
+        <v>10</v>
+      </c>
+      <c r="J101">
+        <v>10</v>
+      </c>
       <c r="L101">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>100</v>
       </c>
+      <c r="B102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
       <c r="L102">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2704,15 +3607,51 @@
       <c r="A103" t="s">
         <v>101</v>
       </c>
+      <c r="B103">
+        <v>4</v>
+      </c>
+      <c r="C103" t="s">
+        <v>136</v>
+      </c>
+      <c r="D103">
+        <v>10</v>
+      </c>
+      <c r="F103">
+        <v>4</v>
+      </c>
+      <c r="G103" t="s">
+        <v>133</v>
+      </c>
+      <c r="H103">
+        <v>10</v>
+      </c>
+      <c r="J103">
+        <v>10</v>
+      </c>
       <c r="L103">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>102</v>
       </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
       <c r="L104">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2722,96 +3661,312 @@
       <c r="A105" t="s">
         <v>103</v>
       </c>
+      <c r="B105">
+        <v>10</v>
+      </c>
+      <c r="D105">
+        <v>10</v>
+      </c>
+      <c r="F105">
+        <v>10</v>
+      </c>
+      <c r="H105">
+        <v>10</v>
+      </c>
+      <c r="J105">
+        <v>10</v>
+      </c>
       <c r="L105">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>104</v>
       </c>
+      <c r="B106">
+        <v>10</v>
+      </c>
+      <c r="D106">
+        <v>4</v>
+      </c>
+      <c r="E106" t="s">
+        <v>140</v>
+      </c>
+      <c r="F106">
+        <v>10</v>
+      </c>
+      <c r="H106">
+        <v>10</v>
+      </c>
+      <c r="J106">
+        <v>10</v>
+      </c>
       <c r="L106">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>105</v>
       </c>
+      <c r="B107">
+        <v>4</v>
+      </c>
+      <c r="C107" t="s">
+        <v>136</v>
+      </c>
+      <c r="D107">
+        <v>4</v>
+      </c>
+      <c r="E107" t="s">
+        <v>140</v>
+      </c>
+      <c r="F107">
+        <v>10</v>
+      </c>
+      <c r="H107">
+        <v>10</v>
+      </c>
+      <c r="J107">
+        <v>10</v>
+      </c>
       <c r="L107">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>106</v>
       </c>
+      <c r="B108">
+        <v>4</v>
+      </c>
+      <c r="C108" t="s">
+        <v>136</v>
+      </c>
+      <c r="D108">
+        <v>7</v>
+      </c>
+      <c r="E108" t="s">
+        <v>132</v>
+      </c>
+      <c r="F108">
+        <v>10</v>
+      </c>
+      <c r="H108">
+        <v>10</v>
+      </c>
+      <c r="J108">
+        <v>10</v>
+      </c>
       <c r="L108">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>107</v>
       </c>
+      <c r="B109">
+        <v>4</v>
+      </c>
+      <c r="C109" t="s">
+        <v>136</v>
+      </c>
+      <c r="D109">
+        <v>7</v>
+      </c>
+      <c r="E109" t="s">
+        <v>138</v>
+      </c>
+      <c r="F109">
+        <v>10</v>
+      </c>
+      <c r="H109">
+        <v>10</v>
+      </c>
+      <c r="J109">
+        <v>10</v>
+      </c>
       <c r="L109">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>108</v>
       </c>
+      <c r="B110">
+        <v>10</v>
+      </c>
+      <c r="D110">
+        <v>4</v>
+      </c>
+      <c r="E110" t="s">
+        <v>140</v>
+      </c>
+      <c r="F110">
+        <v>10</v>
+      </c>
+      <c r="H110">
+        <v>10</v>
+      </c>
+      <c r="J110">
+        <v>10</v>
+      </c>
       <c r="L110">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>109</v>
       </c>
+      <c r="B111">
+        <v>10</v>
+      </c>
+      <c r="D111">
+        <v>10</v>
+      </c>
+      <c r="F111">
+        <v>10</v>
+      </c>
+      <c r="H111">
+        <v>5</v>
+      </c>
+      <c r="I111" t="s">
+        <v>145</v>
+      </c>
+      <c r="J111">
+        <v>5</v>
+      </c>
+      <c r="K111" t="s">
+        <v>145</v>
+      </c>
       <c r="L111">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>110</v>
       </c>
+      <c r="B112">
+        <v>4</v>
+      </c>
+      <c r="C112" t="s">
+        <v>136</v>
+      </c>
+      <c r="D112">
+        <v>4</v>
+      </c>
+      <c r="E112" t="s">
+        <v>140</v>
+      </c>
+      <c r="F112">
+        <v>10</v>
+      </c>
+      <c r="H112">
+        <v>10</v>
+      </c>
+      <c r="J112">
+        <v>5</v>
+      </c>
+      <c r="K112" t="s">
+        <v>145</v>
+      </c>
       <c r="L112">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>111</v>
       </c>
+      <c r="B113">
+        <v>10</v>
+      </c>
+      <c r="D113">
+        <v>10</v>
+      </c>
+      <c r="F113">
+        <v>10</v>
+      </c>
+      <c r="H113">
+        <v>10</v>
+      </c>
+      <c r="J113">
+        <v>10</v>
+      </c>
       <c r="L113">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>112</v>
       </c>
+      <c r="B114">
+        <v>4</v>
+      </c>
+      <c r="C114" t="s">
+        <v>136</v>
+      </c>
+      <c r="D114">
+        <v>7</v>
+      </c>
+      <c r="E114" t="s">
+        <v>132</v>
+      </c>
+      <c r="F114">
+        <v>10</v>
+      </c>
+      <c r="H114">
+        <v>5</v>
+      </c>
+      <c r="I114" t="s">
+        <v>145</v>
+      </c>
+      <c r="J114">
+        <v>5</v>
+      </c>
+      <c r="K114" t="s">
+        <v>145</v>
+      </c>
       <c r="L114">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>113</v>
       </c>
+      <c r="B115">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="F115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
       <c r="L115">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2821,50 +3976,161 @@
       <c r="A116" t="s">
         <v>114</v>
       </c>
+      <c r="B116">
+        <v>4</v>
+      </c>
+      <c r="C116" t="s">
+        <v>136</v>
+      </c>
+      <c r="D116">
+        <v>7</v>
+      </c>
+      <c r="E116" t="s">
+        <v>132</v>
+      </c>
+      <c r="F116">
+        <v>10</v>
+      </c>
+      <c r="H116">
+        <v>10</v>
+      </c>
+      <c r="J116">
+        <v>10</v>
+      </c>
       <c r="L116">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>115</v>
       </c>
+      <c r="B117">
+        <v>10</v>
+      </c>
+      <c r="D117">
+        <v>7</v>
+      </c>
+      <c r="E117" t="s">
+        <v>132</v>
+      </c>
+      <c r="F117">
+        <v>10</v>
+      </c>
+      <c r="H117">
+        <v>10</v>
+      </c>
+      <c r="J117">
+        <v>10</v>
+      </c>
       <c r="L117">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>116</v>
       </c>
+      <c r="B118">
+        <v>10</v>
+      </c>
+      <c r="D118">
+        <v>4</v>
+      </c>
+      <c r="E118" t="s">
+        <v>140</v>
+      </c>
+      <c r="F118">
+        <v>10</v>
+      </c>
+      <c r="H118">
+        <v>10</v>
+      </c>
+      <c r="J118">
+        <v>10</v>
+      </c>
       <c r="L118">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>117</v>
       </c>
+      <c r="B119">
+        <v>10</v>
+      </c>
+      <c r="D119">
+        <v>4</v>
+      </c>
+      <c r="E119" t="s">
+        <v>140</v>
+      </c>
+      <c r="F119">
+        <v>10</v>
+      </c>
+      <c r="H119">
+        <v>10</v>
+      </c>
+      <c r="J119">
+        <v>10</v>
+      </c>
       <c r="L119">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>118</v>
       </c>
+      <c r="B120">
+        <v>4</v>
+      </c>
+      <c r="C120" t="s">
+        <v>136</v>
+      </c>
+      <c r="D120">
+        <v>4</v>
+      </c>
+      <c r="E120" t="s">
+        <v>140</v>
+      </c>
+      <c r="F120">
+        <v>10</v>
+      </c>
+      <c r="H120">
+        <v>10</v>
+      </c>
+      <c r="J120">
+        <v>10</v>
+      </c>
       <c r="L120">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>119</v>
+      </c>
+      <c r="B121">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="F121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
       </c>
       <c r="L121">
         <f t="shared" si="1"/>
